--- a/S370170/Week - 01/Time Sheet_ DEV_Group_C.xlsx
+++ b/S370170/Week - 01/Time Sheet_ DEV_Group_C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28005"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charlesdarwinuni.sharepoint.com/teams/S224PRT585SOFTWAREENGINEERI_db05699a-dc17-11ee-92a8-6fbde69191ca/Shared Documents/General/Timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{5998CB2D-7B4C-45AB-B686-0DD616F99D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEC8D3EE-DB57-4DAC-B762-CE66926848A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A860DB-D4DD-41CE-8181-BC5846641004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="107">
   <si>
     <t>Week</t>
   </si>
@@ -78,31 +78,31 @@
     <t>https://teams.microsoft.com/l/channel/19%3A2acff17c7953409599c9f36d5f615f0c%40thread.tacv2/Developer%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70</t>
   </si>
   <si>
-    <t xml:space="preserve">Ravneeth Singh,   Uttam Sapkota,      Min Shi,                   Nithya Romeshika Yamasinghe,                    Bishwas Thapa Magar,                     Kai Quian,                Jinyuan Zhang                                             </t>
+    <t xml:space="preserve">Ravneeth Singh,   Uttam Sapkota,      Min Shi,                   Nithya Romeshika Yamasinghe,                    Bishwas Thapa Magar,                     Kai Qian,                Jinyuan Zhang                                             </t>
   </si>
   <si>
     <t>Hour 1 (2024/08/01)</t>
   </si>
   <si>
-    <t xml:space="preserve">1). Individual updates and goals                                                                                            2). GitHub group repository creation                                                                         3). Add group members to the repository                                                                4). HTML introduction and                                                                                           5). Discuss necessary skills  React/ Vue Js/ .NET/ Java etc                                                                          </t>
+    <t xml:space="preserve">1). Individual updates and goals                                                                                            2). GitHub group repository creation                                                                         3). Add group members to the repository                                                                                                                                 </t>
   </si>
   <si>
     <t>Hour 2 (2024/08/01)</t>
   </si>
   <si>
-    <t>6) GitHub demo on clone/ push/ pull                                                                                 7). LinkedIn premium and courses                                                                                       8). Next meeting plan and date</t>
-  </si>
-  <si>
-    <t>Hour 3 (2024/08/03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1). Individual updates and goals                                                                                            2). Vue Js introduction and video                                                                                3). Jira basics  (scrum boards, and tasks creation)                                                                                                                4). Nest.Js project walkthrough                                                                                     </t>
-  </si>
-  <si>
-    <t>Hour 4 (2024/08/03)</t>
-  </si>
-  <si>
-    <t>6) GraphQL overview                                                                                                    7). GitHub student developer pack benefits                                                                                       8). LinkedIn learning courses</t>
+    <t xml:space="preserve">4). HTML introduction and                                                                                           5). Discuss necessary skills  React/ Vue Js/ .NET/ Java etc         </t>
+  </si>
+  <si>
+    <t>Hour 3 (2024/08/01)</t>
+  </si>
+  <si>
+    <t>6) GitHub demo on clone/ push/ pull                                                                                 7). Next meeting plan and date</t>
+  </si>
+  <si>
+    <t>Hour 4 (2024/08/01)</t>
+  </si>
+  <si>
+    <t>8). LinkedIn premium and courses</t>
   </si>
   <si>
     <t>WEEK 2</t>
@@ -111,13 +111,43 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ravneeth Singh,   Uttam Sapkota,      Min Shi,                   Nithya Romeshika Yamasinghe,                    Bishwas Thapa Magar,                     Kai Quian,                Jinyuan Zhang </t>
-  </si>
-  <si>
-    <t>Hour 1 (2024/08/08)</t>
-  </si>
-  <si>
-    <t>Hour 2 (2024/08/08)</t>
+    <t xml:space="preserve">Ravneeth Singh,   Uttam Sapkota,      Min Shi,                   Nithya Romeshika Yamasinghe,                    Bishwas Thapa Magar,                     Kai Qian,                Jinyuan Zhang </t>
+  </si>
+  <si>
+    <t>Hour 1 (2024/08/03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1). Individual updates and goals                                                                                            2). Vue Js introduction and video                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>Hour 2 (2024/08/03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3). Jira basics  (scrum boards, and tasks creation)                                                                                                                4). Nest.Js project walkthrough     </t>
+  </si>
+  <si>
+    <t>Hour 3                        (2024/08/03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) GraphQL overview                                                                                                    7). GitHub student developer pack benefits </t>
+  </si>
+  <si>
+    <t>Hour 4                             (2024/08/03)</t>
+  </si>
+  <si>
+    <t>8). LinkedIn learning courses</t>
+  </si>
+  <si>
+    <t>WEEK 12</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Hour 1</t>
+  </si>
+  <si>
+    <t>Hour 2</t>
   </si>
   <si>
     <t>Hour 3</t>
@@ -126,18 +156,6 @@
     <t>Hour 4</t>
   </si>
   <si>
-    <t>WEEK 12</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Hour 1</t>
-  </si>
-  <si>
-    <t>Hour 2</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -204,12 +222,42 @@
     <t>4.) Explored the skills required as a developer to create resume and learned about the pathway for software developer</t>
   </si>
   <si>
+    <t>Kai Qian</t>
+  </si>
+  <si>
+    <t>s365690</t>
+  </si>
+  <si>
+    <t>1.) Initial project setup</t>
+  </si>
+  <si>
+    <t>2.)Creating HomeController.cs with sample movie data</t>
+  </si>
+  <si>
+    <t>GroupC - Tester</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/channel/19%3Ad975ebf51ec444259339d9df50d4cbc1%40thread.tacv2/Tester%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70</t>
+  </si>
+  <si>
+    <t>https://github.com/TigerQian/Tester---Group-C</t>
+  </si>
+  <si>
+    <t>Hour 3-4</t>
+  </si>
+  <si>
+    <t>3.) Implementing Index, Privacy, About, Contact, and Services actions in HomeController.                                        4.) Creating Search.cshtml view with search form and validation messages</t>
+  </si>
+  <si>
+    <t>Hour 5-6</t>
+  </si>
+  <si>
+    <t>5.) Creating About.cshtml and Privacy.cshtml views.           6.) Adding SearchViewModel for search input and validation</t>
+  </si>
+  <si>
     <t>GroupA - BA</t>
   </si>
   <si>
-    <t>Group D - BA</t>
-  </si>
-  <si>
     <t>GroupA - Dev</t>
   </si>
   <si>
@@ -243,29 +291,80 @@
     <t>5.) Learned to do basic coding in python and wrote my first "Hello World" code using python</t>
   </si>
   <si>
+    <t>1.) Setting Up Models</t>
+  </si>
+  <si>
+    <t>2.)Setting Up DbContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour 3-4                 </t>
+  </si>
+  <si>
+    <t>3.) Scaffolding CRUD Operations for Movies.                                        4.) Scaffolding CRUD Operations for Categories.</t>
+  </si>
+  <si>
+    <t>5.) learn how to use automated test.                                       6.) Use automated test doing the login vaild check.</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>1.)Applying Migrations and Updating Database</t>
+  </si>
+  <si>
+    <t>2.)Updating Pages with Dropdown</t>
+  </si>
+  <si>
+    <t>3.) Validations and Data Annotations.                                       4.) Styling and UI Improvements.</t>
+  </si>
+  <si>
+    <t>5.) learn how to use user perfermance test.                                       6.) doing user perfermance test with CDU website.</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
     <t>Student 3</t>
   </si>
   <si>
-    <t>Student 4</t>
-  </si>
-  <si>
-    <t>Student 5</t>
-  </si>
-  <si>
-    <t>Student 6</t>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Student 1</t>
   </si>
   <si>
-    <t>Student 2</t>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +409,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -540,18 +651,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -866,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7088EF5-CD62-4767-BF90-A15933D72AE6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -920,7 +1041,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="72">
+    <row r="3" spans="1:8" ht="45.75">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -944,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.15">
+    <row r="4" spans="1:8" ht="45.75">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -958,7 +1079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6">
+    <row r="5" spans="1:8" ht="45.75">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -972,7 +1093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.15">
+    <row r="6" spans="1:8" ht="45.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -982,7 +1103,7 @@
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1028,9 +1149,11 @@
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.9">
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45.75">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1038,11 +1161,13 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45.75">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1050,11 +1175,13 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1062,9 +1189,11 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
@@ -1078,7 +1207,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1090,7 +1219,7 @@
     </row>
     <row r="15" spans="1:8" ht="14.65" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>10</v>
@@ -1102,7 +1231,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1114,7 +1243,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1126,7 +1255,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1138,7 +1267,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1181,9 +1310,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1328,7 @@
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.15">
+    <row r="1" spans="1:8" ht="45.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,13 +1342,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1244,60 +1373,60 @@
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="21"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="27"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="27"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="21"/>
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.75">
       <c r="A6" s="22"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1305,39 +1434,39 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>46</v>
+      <c r="D8" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="21"/>
       <c r="B9" s="17"/>
       <c r="C9" s="27"/>
@@ -1345,30 +1474,30 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="21"/>
       <c r="B10" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.15">
@@ -1379,29 +1508,39 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="21"/>
       <c r="B14" s="17"/>
       <c r="C14" s="27"/>
@@ -1409,35 +1548,45 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60.75">
       <c r="A15" s="21"/>
       <c r="B15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45.75">
       <c r="A16" s="22"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="D17" s="9"/>
@@ -1447,40 +1596,40 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="21"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="21"/>
       <c r="B20" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1492,7 +1641,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1501,40 +1650,40 @@
         <v>9</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="21"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1546,7 +1695,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -1555,40 +1704,40 @@
         <v>9</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="21"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1600,7 +1749,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1621,59 +1770,59 @@
         <v>23</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.9">
       <c r="A35" s="21"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="21"/>
       <c r="B36" s="15" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.9">
@@ -1684,10 +1833,10 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30.75">
@@ -1697,57 +1846,57 @@
       <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>46</v>
+      <c r="D39" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="43.15">
       <c r="A40" s="21"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30.75">
       <c r="A41" s="21"/>
       <c r="B41" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30.75">
@@ -1758,31 +1907,40 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15"/>
+    <row r="44" spans="1:8" ht="14.45" customHeight="1">
       <c r="A44" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="E44" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="35.25" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="17"/>
       <c r="C45" s="27"/>
@@ -1790,77 +1948,88 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="56.25" customHeight="1">
       <c r="A46" s="21"/>
       <c r="B46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51.75" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
+        <v>70</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15"/>
     <row r="49" spans="1:8">
       <c r="A49" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="20" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="21"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="21"/>
       <c r="B51" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -1872,7 +2041,7 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -1881,42 +2050,42 @@
         <v>23</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="20" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21"/>
       <c r="B55" s="17"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -1928,7 +2097,7 @@
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -1937,42 +2106,42 @@
         <v>23</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="21"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="21"/>
       <c r="B61" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -1984,13 +2153,14 @@
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="64" spans="1:8" ht="15"/>
+    <row r="65" spans="1:8" ht="14.45" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -2000,25 +2170,33 @@
       <c r="G65" s="24"/>
       <c r="H65" s="25"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="14.45" customHeight="1">
       <c r="A66" s="20" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="E66" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="57.75" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="17"/>
       <c r="C67" s="27"/>
@@ -2026,81 +2204,92 @@
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="92.25" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="63" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="71" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="71" spans="1:8" ht="14.45" customHeight="1">
       <c r="A71" s="20" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="20" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="14.45" customHeight="1">
       <c r="A72" s="21"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
       <c r="G72" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="14.45" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="14.45" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -2108,55 +2297,56 @@
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="75" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="76" spans="1:8" ht="14.45" customHeight="1">
       <c r="A76" s="20" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="20" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="14.45" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="17"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="14.45" customHeight="1">
       <c r="A78" s="21"/>
       <c r="B78" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="14.45" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -2164,55 +2354,56 @@
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="20" t="s">
-        <v>30</v>
+    <row r="80" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="81" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A81" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="20" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="14.45" customHeight="1">
       <c r="A82" s="21"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="14.45" customHeight="1">
       <c r="A83" s="21"/>
       <c r="B83" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="14.45" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -2220,55 +2411,56 @@
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="20" t="s">
-        <v>30</v>
+    <row r="85" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="86" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A86" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="20" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="14.45" customHeight="1">
       <c r="A87" s="21"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
       <c r="G87" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="14.45" customHeight="1">
       <c r="A88" s="21"/>
       <c r="B88" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="14.45" customHeight="1">
       <c r="A89" s="22"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -2276,55 +2468,56 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="20" t="s">
-        <v>30</v>
+    <row r="90" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="91" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A91" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="14.45" customHeight="1">
       <c r="A92" s="21"/>
       <c r="B92" s="17"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
       <c r="G92" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="14.45" customHeight="1">
       <c r="A93" s="21"/>
       <c r="B93" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="14.45" customHeight="1">
       <c r="A94" s="22"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -2332,12 +2525,1243 @@
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
       <c r="G94" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H94" s="3"/>
     </row>
+    <row r="95" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="96" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="97" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A97" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+    </row>
+    <row r="98" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A98" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A99" s="21"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A100" s="21"/>
+      <c r="B100" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A101" s="22"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="103" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A103" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A104" s="21"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A105" s="21"/>
+      <c r="B105" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A106" s="22"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="108" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A108" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A109" s="21"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A110" s="21"/>
+      <c r="B110" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A111" s="22"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="113" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A113" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A114" s="21"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A115" s="21"/>
+      <c r="B115" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A116" s="22"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="118" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A118" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A119" s="21"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A120" s="21"/>
+      <c r="B120" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A121" s="22"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="123" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A123" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A124" s="21"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A125" s="21"/>
+      <c r="B125" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A126" s="22"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="128" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="129" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A129" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="25"/>
+    </row>
+    <row r="130" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A130" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="20"/>
+      <c r="G130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A131" s="21"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A132" s="21"/>
+      <c r="B132" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A133" s="22"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="135" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A135" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" s="20"/>
+      <c r="G135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A136" s="21"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A137" s="21"/>
+      <c r="B137" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A138" s="22"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="140" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A140" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" s="20"/>
+      <c r="G140" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A141" s="21"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A142" s="21"/>
+      <c r="B142" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A143" s="22"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="145" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A145" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A146" s="21"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A147" s="21"/>
+      <c r="B147" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A148" s="22"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="150" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A150" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="20"/>
+      <c r="G150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A151" s="21"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A152" s="21"/>
+      <c r="B152" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A153" s="22"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="155" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A155" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F155" s="20"/>
+      <c r="G155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A156" s="21"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A157" s="21"/>
+      <c r="B157" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A158" s="22"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="160" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="161" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A161" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="25"/>
+    </row>
+    <row r="162" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A162" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F162" s="20"/>
+      <c r="G162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A163" s="21"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A164" s="21"/>
+      <c r="B164" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A165" s="22"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="167" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A167" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="20"/>
+      <c r="G167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A168" s="21"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A169" s="21"/>
+      <c r="B169" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A170" s="22"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="172" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A172" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" s="20"/>
+      <c r="G172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A173" s="21"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A174" s="21"/>
+      <c r="B174" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A175" s="22"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="177" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A177" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" s="20"/>
+      <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A178" s="21"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A179" s="21"/>
+      <c r="B179" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A180" s="22"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="182" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A182" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F182" s="20"/>
+      <c r="G182" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A183" s="21"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A184" s="21"/>
+      <c r="B184" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A185" s="22"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" ht="14.45" customHeight="1"/>
+    <row r="187" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A187" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="20"/>
+      <c r="G187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A188" s="21"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A189" s="21"/>
+      <c r="B189" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A190" s="22"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" ht="15"/>
   </sheetData>
-  <mergeCells count="165">
+  <mergeCells count="330">
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E190"/>
+    <mergeCell ref="F187:F190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E180"/>
+    <mergeCell ref="F177:F180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A161:H161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="F140:F143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E138"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="A34:A37"/>
@@ -2521,6 +3945,21 @@
     <hyperlink ref="D39" r:id="rId14" xr:uid="{4465F0A8-DCAD-44BB-AC08-CB4DF7F3926F}"/>
     <hyperlink ref="C41" r:id="rId15" xr:uid="{D8A766F5-B4EE-4B87-92CA-618909BBD74B}"/>
     <hyperlink ref="C39" r:id="rId16" xr:uid="{86D213A4-7652-442D-8FBE-C2D7F5790719}"/>
+    <hyperlink ref="C8:C9" r:id="rId17" display="https://teams.microsoft.com/l/channel/19%3A2acff17c7953409599c9f36d5f615f0c%40thread.tacv2/Developer%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{F19C0A71-D760-4CCF-B1BC-2ED477487658}"/>
+    <hyperlink ref="C13:C14" r:id="rId18" display="https://teams.microsoft.com/l/channel/19%3A2acff17c7953409599c9f36d5f615f0c%40thread.tacv2/Developer%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{09DD22E1-A7CB-42B4-8A28-D58E8286FC20}"/>
+    <hyperlink ref="D8:D9" r:id="rId19" display="https://github.com/bishwasmgr/Developer---Group-C.git" xr:uid="{3D067BF9-2F3A-4790-9E86-428CB8FBCBE7}"/>
+    <hyperlink ref="D13:D14" r:id="rId20" display="https://github.com/bishwasmgr/Developer---Group-C.git" xr:uid="{8DC8362E-4F94-477E-B618-85149BCE691B}"/>
+    <hyperlink ref="C15:C16" r:id="rId21" display="https://teams.microsoft.com/l/channel/19%3Ad975ebf51ec444259339d9df50d4cbc1%40thread.tacv2/Tester%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{F3F3A262-0592-46C5-8ADF-4652365ED549}"/>
+    <hyperlink ref="D3:D4" r:id="rId22" display="https://github.com/bishwasmgr/Developer---Group-C" xr:uid="{5F3AFD13-CC0B-4D76-9AB9-1DB65F7D1DAF}"/>
+    <hyperlink ref="D15:D16" r:id="rId23" display="https://github.com/TigerQian/Tester---Group-C" xr:uid="{28A43D7F-6298-4C11-9116-1ED2615DE2FE}"/>
+    <hyperlink ref="C44:C45" r:id="rId24" display="https://teams.microsoft.com/l/channel/19%3A2acff17c7953409599c9f36d5f615f0c%40thread.tacv2/Developer%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{8B93EF7B-06BF-4D2C-B0B7-CD60D4DD755B}"/>
+    <hyperlink ref="D44:D45" r:id="rId25" display="https://github.com/bishwasmgr/Developer---Group-C.git" xr:uid="{932B411D-788D-428F-B8C0-99CF4F8C7372}"/>
+    <hyperlink ref="C46:C47" r:id="rId26" display="https://teams.microsoft.com/l/channel/19%3Ad975ebf51ec444259339d9df50d4cbc1%40thread.tacv2/Tester%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{BFB702CE-54C9-4C3F-909F-2B5AEF351AE0}"/>
+    <hyperlink ref="D46:D47" r:id="rId27" display="https://github.com/TigerQian/Tester---Group-C" xr:uid="{0F993FD7-44B5-4DD0-A4BD-75D2FE23EFC6}"/>
+    <hyperlink ref="C66:C67" r:id="rId28" display="https://teams.microsoft.com/l/channel/19%3A2acff17c7953409599c9f36d5f615f0c%40thread.tacv2/Developer%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{09F0D5E1-F4FA-4884-A107-4AD3869B0DFA}"/>
+    <hyperlink ref="D66:D67" r:id="rId29" display="https://github.com/bishwasmgr/Developer---Group-C.git" xr:uid="{35EA3692-98F5-4206-8D1A-F95270FA5E0D}"/>
+    <hyperlink ref="C68:C69" r:id="rId30" display="https://teams.microsoft.com/l/channel/19%3Ad975ebf51ec444259339d9df50d4cbc1%40thread.tacv2/Tester%20-%20Group%20C?groupId=4156bd19-4f32-48f6-be47-7f5f78379cc5&amp;tenantId=9f248767-8e1a-42f3-836f-c092ab95ff70" xr:uid="{348A4E8C-D94A-49DC-8392-A0628FFD7A11}"/>
+    <hyperlink ref="D68:D69" r:id="rId31" display="https://github.com/TigerQian/Tester---Group-C" xr:uid="{CB7795E5-ED3C-4AE3-AC71-5B1D902462CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
